--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse projects\NewAutomation\OpenKartSeleniumProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E169F585-C294-42BE-B09F-B86A052CDC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C047516-6576-4759-926A-F7787E6FD6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Web Url</t>
   </si>
@@ -43,13 +44,22 @@
   </si>
   <si>
     <t>https://tutorialsninja.com/demo/</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>johnny99009@abc.com</t>
+  </si>
+  <si>
+    <t>!@#POa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +74,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF17C6A3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,9 +103,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -373,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -412,4 +429,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AF2D70-B033-47E3-8E32-214338F9AAB1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="4" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse projects\NewAutomation\OpenKartSeleniumProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C047516-6576-4759-926A-F7787E6FD6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C942B146-845C-4E47-81BA-CBD38B184CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Web Url</t>
   </si>
@@ -53,6 +53,27 @@
   </si>
   <si>
     <t>!@#POa</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>skhfvb</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t>sdh</t>
+  </si>
+  <si>
+    <t>Invalid Email</t>
+  </si>
+  <si>
+    <t>AlexJones123@abc.com</t>
   </si>
 </sst>
 </file>
@@ -433,10 +454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AF2D70-B033-47E3-8E32-214338F9AAB1}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,20 +466,59 @@
     <col min="2" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1234567</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse projects\NewAutomation\OpenKartSeleniumProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C942B146-845C-4E47-81BA-CBD38B184CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F095B6D-3ADC-4257-B86D-7E6F5BAFDAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Web Url</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>AlexJones123@abc.com</t>
+  </si>
+  <si>
+    <t>Execution_Environment</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Windows</t>
   </si>
 </sst>
 </file>
@@ -409,16 +418,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,6 +454,19 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -456,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AF2D70-B033-47E3-8E32-214338F9AAB1}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse projects\NewAutomation\OpenKartSeleniumProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F095B6D-3ADC-4257-B86D-7E6F5BAFDAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476635BC-3CAF-4450-88CD-B1CB3BE7A266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Web Url</t>
   </si>
@@ -82,7 +82,10 @@
     <t>Platform</t>
   </si>
   <si>
-    <t>Windows</t>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Remote</t>
   </si>
 </sst>
 </file>
@@ -460,6 +463,9 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
